--- a/SwebTest/LS-QR-CS-05 冒烟用例_自动化v1.1.xlsx
+++ b/SwebTest/LS-QR-CS-05 冒烟用例_自动化v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="1" r:id="rId1"/>
@@ -6657,6 +6657,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -6865,6 +6871,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -7076,6 +7088,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -7251,6 +7269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -22440,6 +22464,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -22535,6 +22565,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -42611,11 +42647,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00&quot;h&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="General&quot;h&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -46818,9 +46854,9 @@
   <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -46941,7 +46977,7 @@
       </c>
       <c r="I4" s="47">
         <f ca="1">SUMPRODUCT((SUBTOTAL(103,OFFSET(H13,ROW(13:1077)-9,))*(H13:H1077="Not Executed")))</f>
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>94</v>
@@ -46967,7 +47003,7 @@
       </c>
       <c r="I5" s="54">
         <f ca="1">SUM(I1:I4)</f>
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="J5" s="55" t="s">
         <v>97</v>
@@ -47623,7 +47659,7 @@
       <c r="N27" s="70"/>
       <c r="O27" s="71"/>
     </row>
-    <row r="28" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:15">
+    <row r="28" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A28" s="83">
         <v>1.3</v>
       </c>
@@ -47644,7 +47680,7 @@
       <c r="N28" s="63"/>
       <c r="O28" s="65"/>
     </row>
-    <row r="29" s="5" customFormat="1" ht="24.75" outlineLevel="2" spans="1:15">
+    <row r="29" s="5" customFormat="1" ht="24.75" hidden="1" outlineLevel="2" spans="1:15">
       <c r="A29" s="35" t="s">
         <v>189</v>
       </c>
@@ -47673,7 +47709,7 @@
       <c r="N29" s="70"/>
       <c r="O29" s="71"/>
     </row>
-    <row r="30" s="5" customFormat="1" ht="24.75" outlineLevel="2" spans="1:15">
+    <row r="30" s="5" customFormat="1" ht="24.75" hidden="1" outlineLevel="2" spans="1:15">
       <c r="A30" s="35" t="s">
         <v>66</v>
       </c>
@@ -47702,7 +47738,7 @@
       <c r="N30" s="70"/>
       <c r="O30" s="71"/>
     </row>
-    <row r="31" s="5" customFormat="1" ht="24.75" outlineLevel="2" spans="1:16">
+    <row r="31" s="5" customFormat="1" ht="24.75" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A31" s="35" t="s">
         <v>196</v>
       </c>
@@ -47732,7 +47768,7 @@
       <c r="O31" s="71"/>
       <c r="P31"/>
     </row>
-    <row r="32" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="32" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A32" s="35" t="s">
         <v>200</v>
       </c>
@@ -47762,7 +47798,7 @@
       <c r="O32" s="71"/>
       <c r="P32"/>
     </row>
-    <row r="33" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="33" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A33" s="35" t="s">
         <v>204</v>
       </c>
@@ -47792,7 +47828,7 @@
       <c r="O33" s="71"/>
       <c r="P33"/>
     </row>
-    <row r="34" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="34" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A34" s="35" t="s">
         <v>208</v>
       </c>
@@ -47822,7 +47858,7 @@
       <c r="O34" s="71"/>
       <c r="P34"/>
     </row>
-    <row r="35" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="35" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A35" s="35" t="s">
         <v>212</v>
       </c>
@@ -48027,7 +48063,7 @@
       <c r="N41" s="70"/>
       <c r="O41" s="71"/>
     </row>
-    <row r="42" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:16">
+    <row r="42" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:16">
       <c r="A42" s="32">
         <v>1.5</v>
       </c>
@@ -48049,7 +48085,7 @@
       <c r="O42" s="65"/>
       <c r="P42"/>
     </row>
-    <row r="43" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="43" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:15">
       <c r="A43" s="35" t="s">
         <v>237</v>
       </c>
@@ -48078,7 +48114,7 @@
       <c r="N43" s="70"/>
       <c r="O43" s="71"/>
     </row>
-    <row r="44" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="44" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:15">
       <c r="A44" s="35" t="s">
         <v>241</v>
       </c>
@@ -48107,7 +48143,7 @@
       <c r="N44" s="70"/>
       <c r="O44" s="71"/>
     </row>
-    <row r="45" s="5" customFormat="1" ht="62.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="45" s="5" customFormat="1" ht="62.25" outlineLevel="2" spans="1:16">
       <c r="A45" s="35" t="s">
         <v>245</v>
       </c>
@@ -48141,7 +48177,7 @@
       <c r="O45" s="71"/>
       <c r="P45"/>
     </row>
-    <row r="46" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="46" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A46" s="35" t="s">
         <v>250</v>
       </c>
@@ -48171,7 +48207,7 @@
       <c r="O46" s="71"/>
       <c r="P46"/>
     </row>
-    <row r="47" s="5" customFormat="1" ht="127.5" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="47" s="5" customFormat="1" ht="127.5" outlineLevel="2" spans="1:15">
       <c r="A47" s="35" t="s">
         <v>254</v>
       </c>
@@ -48202,7 +48238,7 @@
       <c r="N47" s="70"/>
       <c r="O47" s="71"/>
     </row>
-    <row r="48" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="48" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A48" s="35" t="s">
         <v>259</v>
       </c>
@@ -48234,7 +48270,7 @@
       <c r="O48" s="75"/>
       <c r="P48"/>
     </row>
-    <row r="49" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="49" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A49" s="35" t="s">
         <v>263</v>
       </c>
@@ -48262,7 +48298,7 @@
       <c r="O49" s="71"/>
       <c r="P49"/>
     </row>
-    <row r="50" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="50" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A50" s="35" t="s">
         <v>266</v>
       </c>
@@ -48292,7 +48328,7 @@
       <c r="O50" s="75"/>
       <c r="P50"/>
     </row>
-    <row r="51" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="51" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A51" s="35" t="s">
         <v>270</v>
       </c>
@@ -48320,7 +48356,7 @@
       <c r="O51" s="71"/>
       <c r="P51"/>
     </row>
-    <row r="52" s="5" customFormat="1" ht="50.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="52" s="5" customFormat="1" ht="50.25" outlineLevel="2" spans="1:16">
       <c r="A52" s="35" t="s">
         <v>272</v>
       </c>
@@ -48348,7 +48384,7 @@
       <c r="O52" s="75"/>
       <c r="P52"/>
     </row>
-    <row r="53" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="53" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A53" s="35" t="s">
         <v>274</v>
       </c>
@@ -48378,7 +48414,7 @@
       <c r="O53" s="75"/>
       <c r="P53"/>
     </row>
-    <row r="54" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="54" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A54" s="35" t="s">
         <v>276</v>
       </c>
@@ -48406,7 +48442,7 @@
       <c r="O54" s="71"/>
       <c r="P54"/>
     </row>
-    <row r="55" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="55" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A55" s="35" t="s">
         <v>278</v>
       </c>
@@ -48434,7 +48470,7 @@
       <c r="O55" s="71"/>
       <c r="P55"/>
     </row>
-    <row r="56" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="56" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A56" s="35" t="s">
         <v>281</v>
       </c>
@@ -48466,7 +48502,7 @@
       <c r="O56" s="75"/>
       <c r="P56"/>
     </row>
-    <row r="57" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="57" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A57" s="35" t="s">
         <v>29</v>
       </c>
@@ -48498,7 +48534,7 @@
       <c r="O57" s="75"/>
       <c r="P57"/>
     </row>
-    <row r="58" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:15">
+    <row r="58" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A58" s="83">
         <v>1.6</v>
       </c>
@@ -48519,7 +48555,7 @@
       <c r="N58" s="63"/>
       <c r="O58" s="65"/>
     </row>
-    <row r="59" s="5" customFormat="1" ht="51" outlineLevel="2" spans="1:16">
+    <row r="59" s="5" customFormat="1" ht="51" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A59" s="35" t="s">
         <v>291</v>
       </c>
@@ -48549,7 +48585,7 @@
       <c r="O59" s="71"/>
       <c r="P59"/>
     </row>
-    <row r="60" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:15">
+    <row r="60" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:15">
       <c r="A60" s="35" t="s">
         <v>32</v>
       </c>
@@ -48578,7 +48614,7 @@
       <c r="N60" s="70"/>
       <c r="O60" s="71"/>
     </row>
-    <row r="61" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="61" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A61" s="35" t="s">
         <v>297</v>
       </c>
@@ -48606,7 +48642,7 @@
       <c r="O61" s="71"/>
       <c r="P61"/>
     </row>
-    <row r="62" s="5" customFormat="1" ht="24.75" outlineLevel="2" spans="1:16">
+    <row r="62" s="5" customFormat="1" ht="24.75" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A62" s="35" t="s">
         <v>69</v>
       </c>
@@ -48638,7 +48674,7 @@
       <c r="O62" s="71"/>
       <c r="P62"/>
     </row>
-    <row r="63" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="63" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A63" s="35" t="s">
         <v>304</v>
       </c>
@@ -48668,7 +48704,7 @@
       <c r="O63" s="71"/>
       <c r="P63"/>
     </row>
-    <row r="64" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
+    <row r="64" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A64" s="35" t="s">
         <v>308</v>
       </c>
@@ -48698,7 +48734,7 @@
       <c r="O64" s="71"/>
       <c r="P64"/>
     </row>
-    <row r="65" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
+    <row r="65" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A65" s="35" t="s">
         <v>312</v>
       </c>
@@ -48728,7 +48764,7 @@
       <c r="O65" s="71"/>
       <c r="P65"/>
     </row>
-    <row r="66" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
+    <row r="66" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A66" s="35" t="s">
         <v>316</v>
       </c>
@@ -48758,7 +48794,7 @@
       <c r="O66" s="71"/>
       <c r="P66"/>
     </row>
-    <row r="67" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
+    <row r="67" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A67" s="35" t="s">
         <v>320</v>
       </c>
@@ -48788,7 +48824,7 @@
       <c r="O67" s="71"/>
       <c r="P67"/>
     </row>
-    <row r="68" s="5" customFormat="1" ht="37.5" outlineLevel="2" spans="1:16">
+    <row r="68" s="5" customFormat="1" ht="37.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A68" s="35" t="s">
         <v>324</v>
       </c>
@@ -48818,7 +48854,7 @@
       <c r="O68" s="71"/>
       <c r="P68"/>
     </row>
-    <row r="69" s="5" customFormat="1" ht="61.5" outlineLevel="2" spans="1:16">
+    <row r="69" s="5" customFormat="1" ht="61.5" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A69" s="35" t="s">
         <v>328</v>
       </c>
@@ -48848,7 +48884,7 @@
       <c r="O69" s="71"/>
       <c r="P69"/>
     </row>
-    <row r="70" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
+    <row r="70" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
       <c r="A70" s="35" t="s">
         <v>332</v>
       </c>
@@ -48876,7 +48912,7 @@
       <c r="O70" s="71"/>
       <c r="P70"/>
     </row>
-    <row r="71" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+    <row r="71" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A71" s="83">
         <v>1.7</v>
       </c>
@@ -48897,7 +48933,7 @@
       <c r="N71" s="63"/>
       <c r="O71" s="65"/>
     </row>
-    <row r="72" s="5" customFormat="1" ht="51" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="72" s="5" customFormat="1" ht="51" outlineLevel="2" spans="1:16">
       <c r="A72" s="149" t="s">
         <v>336</v>
       </c>
@@ -48927,7 +48963,7 @@
       <c r="O72" s="71"/>
       <c r="P72"/>
     </row>
-    <row r="73" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="73" s="5" customFormat="1" outlineLevel="2" spans="1:15">
       <c r="A73" s="35" t="s">
         <v>339</v>
       </c>
@@ -48956,7 +48992,7 @@
       <c r="N73" s="70"/>
       <c r="O73" s="71"/>
     </row>
-    <row r="74" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="74" s="5" customFormat="1" outlineLevel="2" spans="1:15">
       <c r="A74" s="35" t="s">
         <v>343</v>
       </c>
@@ -48983,7 +49019,7 @@
       <c r="N74" s="70"/>
       <c r="O74" s="71"/>
     </row>
-    <row r="75" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="75" s="5" customFormat="1" outlineLevel="2" spans="1:15">
       <c r="A75" s="35" t="s">
         <v>70</v>
       </c>
@@ -49010,7 +49046,7 @@
       <c r="N75" s="70"/>
       <c r="O75" s="71"/>
     </row>
-    <row r="76" s="5" customFormat="1" ht="51" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="76" s="5" customFormat="1" ht="51" outlineLevel="2" spans="1:15">
       <c r="A76" s="35" t="s">
         <v>348</v>
       </c>
@@ -49037,7 +49073,7 @@
       <c r="N76" s="70"/>
       <c r="O76" s="71"/>
     </row>
-    <row r="77" s="5" customFormat="1" ht="63.75" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="77" s="5" customFormat="1" ht="63.75" outlineLevel="2" spans="1:16">
       <c r="A77" s="35" t="s">
         <v>351</v>
       </c>
@@ -49065,7 +49101,7 @@
       <c r="O77" s="71"/>
       <c r="P77"/>
     </row>
-    <row r="78" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="78" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A78" s="35" t="s">
         <v>354</v>
       </c>
@@ -49095,7 +49131,7 @@
       <c r="O78" s="71"/>
       <c r="P78"/>
     </row>
-    <row r="79" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="79" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A79" s="35" t="s">
         <v>37</v>
       </c>
@@ -49127,7 +49163,7 @@
       <c r="O79" s="71"/>
       <c r="P79"/>
     </row>
-    <row r="80" s="5" customFormat="1" ht="63" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="80" s="5" customFormat="1" ht="63" outlineLevel="2" spans="1:16">
       <c r="A80" s="35" t="s">
         <v>362</v>
       </c>
@@ -49157,7 +49193,7 @@
       <c r="O80" s="71"/>
       <c r="P80"/>
     </row>
-    <row r="81" s="5" customFormat="1" ht="63.75" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="81" s="5" customFormat="1" ht="63.75" outlineLevel="2" spans="1:16">
       <c r="A81" s="35" t="s">
         <v>366</v>
       </c>
@@ -49185,7 +49221,7 @@
       <c r="O81" s="71"/>
       <c r="P81"/>
     </row>
-    <row r="82" s="5" customFormat="1" ht="36.75" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="82" s="5" customFormat="1" ht="36.75" outlineLevel="2" spans="1:16">
       <c r="A82" s="35" t="s">
         <v>368</v>
       </c>
@@ -49215,7 +49251,7 @@
       <c r="O82" s="71"/>
       <c r="P82"/>
     </row>
-    <row r="83" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="83" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A83" s="35" t="s">
         <v>40</v>
       </c>
@@ -49247,7 +49283,7 @@
       <c r="O83" s="71"/>
       <c r="P83"/>
     </row>
-    <row r="84" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+    <row r="84" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A84" s="83">
         <v>1.8</v>
       </c>
@@ -49268,7 +49304,7 @@
       <c r="N84" s="63"/>
       <c r="O84" s="65"/>
     </row>
-    <row r="85" s="5" customFormat="1" ht="51" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="85" s="5" customFormat="1" ht="51" outlineLevel="2" spans="1:15">
       <c r="A85" s="35" t="s">
         <v>42</v>
       </c>
@@ -49299,7 +49335,7 @@
       <c r="N85" s="70"/>
       <c r="O85" s="71"/>
     </row>
-    <row r="86" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="86" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:15">
       <c r="A86" s="35" t="s">
         <v>381</v>
       </c>
@@ -49326,7 +49362,7 @@
       <c r="N86" s="70"/>
       <c r="O86" s="71"/>
     </row>
-    <row r="87" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="87" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:15">
       <c r="A87" s="35" t="s">
         <v>44</v>
       </c>
@@ -49357,7 +49393,7 @@
       <c r="N87" s="70"/>
       <c r="O87" s="71"/>
     </row>
-    <row r="88" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="88" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A88" s="35" t="s">
         <v>388</v>
       </c>
@@ -49385,7 +49421,7 @@
       <c r="O88" s="71"/>
       <c r="P88"/>
     </row>
-    <row r="89" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="89" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A89" s="35" t="s">
         <v>391</v>
       </c>
@@ -49413,7 +49449,7 @@
       <c r="O89" s="71"/>
       <c r="P89"/>
     </row>
-    <row r="90" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="90" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A90" s="35" t="s">
         <v>394</v>
       </c>
@@ -49443,7 +49479,7 @@
       <c r="O90" s="71"/>
       <c r="P90"/>
     </row>
-    <row r="91" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="91" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A91" s="35" t="s">
         <v>47</v>
       </c>
@@ -49475,7 +49511,7 @@
       <c r="O91" s="71"/>
       <c r="P91"/>
     </row>
-    <row r="92" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+    <row r="92" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A92" s="83">
         <v>1.9</v>
       </c>
@@ -49496,7 +49532,7 @@
       <c r="N92" s="63"/>
       <c r="O92" s="65"/>
     </row>
-    <row r="93" s="5" customFormat="1" ht="37.5" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="93" s="5" customFormat="1" ht="37.5" outlineLevel="2" spans="1:15">
       <c r="A93" s="35" t="s">
         <v>402</v>
       </c>
@@ -49525,7 +49561,7 @@
       <c r="N93" s="70"/>
       <c r="O93" s="71"/>
     </row>
-    <row r="94" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="94" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:15">
       <c r="A94" s="35" t="s">
         <v>50</v>
       </c>
@@ -49556,7 +49592,7 @@
       <c r="N94" s="70"/>
       <c r="O94" s="71"/>
     </row>
-    <row r="95" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="95" s="5" customFormat="1" outlineLevel="2" spans="1:15">
       <c r="A95" s="35" t="s">
         <v>409</v>
       </c>
@@ -49583,7 +49619,7 @@
       <c r="N95" s="70"/>
       <c r="O95" s="71"/>
     </row>
-    <row r="96" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="96" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A96" s="35" t="s">
         <v>411</v>
       </c>
@@ -49611,7 +49647,7 @@
       <c r="O96" s="71"/>
       <c r="P96"/>
     </row>
-    <row r="97" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="97" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A97" s="35" t="s">
         <v>414</v>
       </c>
@@ -49639,7 +49675,7 @@
       <c r="O97" s="71"/>
       <c r="P97"/>
     </row>
-    <row r="98" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="98" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A98" s="35" t="s">
         <v>417</v>
       </c>
@@ -49669,7 +49705,7 @@
       <c r="O98" s="71"/>
       <c r="P98"/>
     </row>
-    <row r="99" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="99" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A99" s="35" t="s">
         <v>420</v>
       </c>
@@ -49697,7 +49733,7 @@
       <c r="O99" s="71"/>
       <c r="P99"/>
     </row>
-    <row r="100" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="100" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A100" s="35" t="s">
         <v>422</v>
       </c>
@@ -49725,7 +49761,7 @@
       <c r="O100" s="71"/>
       <c r="P100"/>
     </row>
-    <row r="101" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="101" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A101" s="35" t="s">
         <v>424</v>
       </c>
@@ -49753,7 +49789,7 @@
       <c r="O101" s="71"/>
       <c r="P101"/>
     </row>
-    <row r="102" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="102" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A102" s="35" t="s">
         <v>426</v>
       </c>
@@ -49783,7 +49819,7 @@
       <c r="O102" s="71"/>
       <c r="P102"/>
     </row>
-    <row r="103" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="103" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A103" s="35" t="s">
         <v>430</v>
       </c>
@@ -49813,7 +49849,7 @@
       <c r="O103" s="71"/>
       <c r="P103"/>
     </row>
-    <row r="104" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="104" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A104" s="149" t="s">
         <v>434</v>
       </c>
@@ -49847,7 +49883,7 @@
       <c r="O104" s="71"/>
       <c r="P104"/>
     </row>
-    <row r="105" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="105" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A105" s="35" t="s">
         <v>438</v>
       </c>
@@ -49877,7 +49913,7 @@
       <c r="O105" s="71"/>
       <c r="P105"/>
     </row>
-    <row r="106" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="106" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A106" s="35" t="s">
         <v>440</v>
       </c>
@@ -49907,7 +49943,7 @@
       <c r="O106" s="71"/>
       <c r="P106"/>
     </row>
-    <row r="107" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="107" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A107" s="35" t="s">
         <v>442</v>
       </c>
@@ -49937,7 +49973,7 @@
       <c r="O107" s="71"/>
       <c r="P107"/>
     </row>
-    <row r="108" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="108" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A108" s="35" t="s">
         <v>444</v>
       </c>
@@ -49969,7 +50005,7 @@
       <c r="O108" s="71"/>
       <c r="P108"/>
     </row>
-    <row r="109" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="109" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A109" s="35" t="s">
         <v>446</v>
       </c>
@@ -49999,7 +50035,7 @@
       <c r="O109" s="71"/>
       <c r="P109"/>
     </row>
-    <row r="110" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="110" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A110" s="35" t="s">
         <v>448</v>
       </c>
@@ -50029,7 +50065,7 @@
       <c r="O110" s="71"/>
       <c r="P110"/>
     </row>
-    <row r="111" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="111" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A111" s="35" t="s">
         <v>451</v>
       </c>
@@ -50059,7 +50095,7 @@
       <c r="O111" s="71"/>
       <c r="P111"/>
     </row>
-    <row r="112" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="112" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A112" s="35" t="s">
         <v>453</v>
       </c>
@@ -50091,7 +50127,7 @@
       <c r="O112" s="71"/>
       <c r="P112"/>
     </row>
-    <row r="113" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="113" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A113" s="35" t="s">
         <v>455</v>
       </c>
@@ -50123,7 +50159,7 @@
       <c r="O113" s="71"/>
       <c r="P113"/>
     </row>
-    <row r="114" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="114" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A114" s="35" t="s">
         <v>457</v>
       </c>
@@ -50155,7 +50191,7 @@
       <c r="O114" s="71"/>
       <c r="P114"/>
     </row>
-    <row r="115" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="115" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A115" s="35" t="s">
         <v>462</v>
       </c>
@@ -50187,7 +50223,7 @@
       <c r="O115" s="71"/>
       <c r="P115"/>
     </row>
-    <row r="116" s="5" customFormat="1" ht="50.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="116" s="5" customFormat="1" ht="50.25" outlineLevel="2" spans="1:16">
       <c r="A116" s="35" t="s">
         <v>56</v>
       </c>
@@ -50221,7 +50257,7 @@
       <c r="O116" s="71"/>
       <c r="P116"/>
     </row>
-    <row r="117" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="117" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A117" s="35" t="s">
         <v>470</v>
       </c>
@@ -50251,7 +50287,7 @@
       <c r="O117" s="71"/>
       <c r="P117"/>
     </row>
-    <row r="118" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="118" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A118" s="35" t="s">
         <v>473</v>
       </c>
@@ -50281,7 +50317,7 @@
       <c r="O118" s="71"/>
       <c r="P118"/>
     </row>
-    <row r="119" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="119" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A119" s="35" t="s">
         <v>477</v>
       </c>
@@ -50309,7 +50345,7 @@
       <c r="O119" s="71"/>
       <c r="P119"/>
     </row>
-    <row r="120" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="120" s="5" customFormat="1" outlineLevel="2" spans="1:16">
       <c r="A120" s="35" t="s">
         <v>479</v>
       </c>
@@ -50339,7 +50375,7 @@
       <c r="O120" s="71"/>
       <c r="P120"/>
     </row>
-    <row r="121" s="5" customFormat="1" ht="38.25" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="121" s="5" customFormat="1" ht="38.25" outlineLevel="2" spans="1:16">
       <c r="A121" s="35" t="s">
         <v>482</v>
       </c>
@@ -50369,7 +50405,7 @@
       <c r="O121" s="71"/>
       <c r="P121"/>
     </row>
-    <row r="122" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:16">
+    <row r="122" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:16">
       <c r="A122" s="35" t="s">
         <v>486</v>
       </c>
@@ -51115,7 +51151,7 @@
       <c r="N148" s="70"/>
       <c r="O148" s="71"/>
     </row>
-    <row r="149" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+    <row r="149" s="5" customFormat="1" ht="30" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A149" s="32">
         <v>1.12</v>
       </c>
@@ -51136,7 +51172,7 @@
       <c r="N149" s="63"/>
       <c r="O149" s="65"/>
     </row>
-    <row r="150" s="5" customFormat="1" ht="25.5" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="150" s="5" customFormat="1" ht="25.5" outlineLevel="2" spans="1:15">
       <c r="A150" s="35" t="s">
         <v>575</v>
       </c>
@@ -51169,7 +51205,7 @@
       <c r="N150" s="70"/>
       <c r="O150" s="71"/>
     </row>
-    <row r="151" s="5" customFormat="1" ht="63.75" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="151" s="5" customFormat="1" ht="63.75" outlineLevel="2" spans="1:15">
       <c r="A151" s="35" t="s">
         <v>580</v>
       </c>
@@ -51200,7 +51236,7 @@
       <c r="N151" s="74"/>
       <c r="O151" s="75"/>
     </row>
-    <row r="152" s="5" customFormat="1" ht="48.75" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="152" s="5" customFormat="1" ht="48.75" outlineLevel="2" spans="1:15">
       <c r="A152" s="35" t="s">
         <v>585</v>
       </c>
@@ -51231,7 +51267,7 @@
       <c r="N152" s="70"/>
       <c r="O152" s="71"/>
     </row>
-    <row r="153" s="5" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
+    <row r="153" s="5" customFormat="1" outlineLevel="2" spans="1:15">
       <c r="A153" s="35" t="s">
         <v>590</v>
       </c>
@@ -53194,7 +53230,7 @@
   <sheetPr/>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
